--- a/ds_overview.xlsx
+++ b/ds_overview.xlsx
@@ -1,39 +1,52 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{77D24244-EF25-4AE1-A910-09F8F19D2407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF277D1F-7DCA-4E31-A4E1-87CCA982DCAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25245" yWindow="-16950" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="train_ds" sheetId="3" r:id="rId1"/>
     <sheet name="val_ds" sheetId="4" r:id="rId2"/>
     <sheet name="test_ds" sheetId="12" r:id="rId3"/>
+    <sheet name="demo_table" sheetId="16" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" keepAlive="1" name="Query - ds_test" description="Connection to the 'ds_test' query in the workbook." type="5" refreshedVersion="0" background="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" keepAlive="1" name="Query - ds_test" description="Connection to the 'ds_test' query in the workbook." type="5" refreshedVersion="0" background="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=ds_test;Extended Properties=&quot;&quot;" command="SELECT * FROM [ds_test]"/>
   </connection>
-  <connection id="2" keepAlive="1" name="Query - ds_val" description="Connection to the 'ds_val' query in the workbook." type="5" refreshedVersion="0" background="1">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" keepAlive="1" name="Query - ds_val" description="Connection to the 'ds_val' query in the workbook." type="5" refreshedVersion="0" background="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=ds_val;Extended Properties=&quot;&quot;" command="SELECT * FROM [ds_val]"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2761" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2801" uniqueCount="189">
   <si>
     <t>pp147</t>
   </si>
@@ -549,13 +562,64 @@
   </si>
   <si>
     <t>pp167</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>young</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>parkinson</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>stroke</t>
+  </si>
+  <si>
+    <t>LBP</t>
+  </si>
+  <si>
+    <t>others</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <t>Age_years</t>
+  </si>
+  <si>
+    <t>Height_cm</t>
+  </si>
+  <si>
+    <t>Weight_kg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -696,8 +760,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -877,6 +948,30 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -994,7 +1089,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1037,8 +1132,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
@@ -1046,8 +1142,17 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1085,6 +1190,7 @@
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="42" xr:uid="{B28AB5B1-642A-48B2-8572-FE41B022E219}"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
@@ -1400,10 +1506,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="B194" sqref="B194"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5734,10 +5842,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K194"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="C152" sqref="C152"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -9383,10 +9493,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K163"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="B164" sqref="B164"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -13060,6 +13172,476 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F06DE00-18C0-431B-8EF9-E2A15B07AFC5}">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="9" width="8.88671875" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D2" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" s="8">
+        <v>21</v>
+      </c>
+      <c r="D3" s="9">
+        <v>27.428571428571427</v>
+      </c>
+      <c r="E3" s="9">
+        <v>7.1384271977195954</v>
+      </c>
+      <c r="F3" s="9">
+        <v>173.04761904761904</v>
+      </c>
+      <c r="G3" s="9">
+        <v>4.6203483686426772</v>
+      </c>
+      <c r="H3" s="9">
+        <v>66.633333333333326</v>
+      </c>
+      <c r="I3" s="9">
+        <v>8.6230118481499201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4" s="10">
+        <v>21</v>
+      </c>
+      <c r="D4" s="11">
+        <v>29.238095238095237</v>
+      </c>
+      <c r="E4" s="11">
+        <v>8.5959569676956935</v>
+      </c>
+      <c r="F4" s="11">
+        <v>184.92857142857142</v>
+      </c>
+      <c r="G4" s="11">
+        <v>7.788269567570377</v>
+      </c>
+      <c r="H4" s="11">
+        <v>79.523809523809518</v>
+      </c>
+      <c r="I4" s="11">
+        <v>11.567234101629772</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" s="12">
+        <v>12</v>
+      </c>
+      <c r="D5" s="13">
+        <v>69.833333333333329</v>
+      </c>
+      <c r="E5" s="13">
+        <v>6.3936521549727647</v>
+      </c>
+      <c r="F5" s="13">
+        <v>166.75</v>
+      </c>
+      <c r="G5" s="13">
+        <v>5.8794712192663905</v>
+      </c>
+      <c r="H5" s="13">
+        <v>71.608333333333334</v>
+      </c>
+      <c r="I5" s="13">
+        <v>17.350109160428591</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="C6" s="14">
+        <v>10</v>
+      </c>
+      <c r="D6" s="15">
+        <v>72.7</v>
+      </c>
+      <c r="E6" s="15">
+        <v>6.3604681868204915</v>
+      </c>
+      <c r="F6" s="15">
+        <v>180.1</v>
+      </c>
+      <c r="G6" s="15">
+        <v>5.8585170668200863</v>
+      </c>
+      <c r="H6" s="15">
+        <v>82.620000000000019</v>
+      </c>
+      <c r="I6" s="15">
+        <v>11.635463033330293</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" s="8">
+        <v>12</v>
+      </c>
+      <c r="D7" s="9">
+        <v>66.583333333333329</v>
+      </c>
+      <c r="E7" s="9">
+        <v>5.8846230022651307</v>
+      </c>
+      <c r="F7" s="9">
+        <v>167.66666666666666</v>
+      </c>
+      <c r="G7" s="9">
+        <v>6.6378163623744557</v>
+      </c>
+      <c r="H7" s="9">
+        <v>70.483333333333334</v>
+      </c>
+      <c r="I7" s="9">
+        <v>15.028931694528044</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="C8" s="10">
+        <v>19</v>
+      </c>
+      <c r="D8" s="11">
+        <v>61.473684210526315</v>
+      </c>
+      <c r="E8" s="11">
+        <v>11.172229564876144</v>
+      </c>
+      <c r="F8" s="11">
+        <v>177.94736842105263</v>
+      </c>
+      <c r="G8" s="11">
+        <v>6.5868023283138459</v>
+      </c>
+      <c r="H8" s="11">
+        <v>86.110526315789471</v>
+      </c>
+      <c r="I8" s="11">
+        <v>13.848220693441819</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="C9" s="12">
+        <v>12</v>
+      </c>
+      <c r="D9" s="13">
+        <v>36.75</v>
+      </c>
+      <c r="E9" s="13">
+        <v>9.5262794416288248</v>
+      </c>
+      <c r="F9" s="13">
+        <v>173.58333333333334</v>
+      </c>
+      <c r="G9" s="13">
+        <v>9.2584932343063784</v>
+      </c>
+      <c r="H9" s="13">
+        <v>74.591666666666654</v>
+      </c>
+      <c r="I9" s="13">
+        <v>9.3415453591454636</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="C10" s="14">
+        <v>9</v>
+      </c>
+      <c r="D10" s="15">
+        <v>42.333333333333336</v>
+      </c>
+      <c r="E10" s="15">
+        <v>15.716233645501712</v>
+      </c>
+      <c r="F10" s="15">
+        <v>188.55555555555554</v>
+      </c>
+      <c r="G10" s="15">
+        <v>8.5602440255975054</v>
+      </c>
+      <c r="H10" s="15">
+        <v>96.266666666666666</v>
+      </c>
+      <c r="I10" s="15">
+        <v>31.725068951855746</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C11" s="8">
+        <v>4</v>
+      </c>
+      <c r="D11" s="9">
+        <v>65.5</v>
+      </c>
+      <c r="E11" s="9">
+        <v>11.030261405182864</v>
+      </c>
+      <c r="F11" s="9">
+        <v>160</v>
+      </c>
+      <c r="G11" s="9">
+        <v>7.3936910042729442</v>
+      </c>
+      <c r="H11" s="9">
+        <v>64.55</v>
+      </c>
+      <c r="I11" s="9">
+        <v>13.24701224175983</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="C12" s="10">
+        <v>17</v>
+      </c>
+      <c r="D12" s="11">
+        <v>67.470588235294116</v>
+      </c>
+      <c r="E12" s="11">
+        <v>17.6107837952305</v>
+      </c>
+      <c r="F12" s="11">
+        <v>177.52941176470588</v>
+      </c>
+      <c r="G12" s="11">
+        <v>7.1161580844127501</v>
+      </c>
+      <c r="H12" s="11">
+        <v>83.800000000000011</v>
+      </c>
+      <c r="I12" s="11">
+        <v>14.80080234311635</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="C13" s="12">
+        <v>3</v>
+      </c>
+      <c r="D13" s="13">
+        <v>64.333333333333329</v>
+      </c>
+      <c r="E13" s="13">
+        <v>11.846237095944561</v>
+      </c>
+      <c r="F13" s="13">
+        <v>165.66666666666666</v>
+      </c>
+      <c r="G13" s="13">
+        <v>6.3508529610858826</v>
+      </c>
+      <c r="H13" s="13">
+        <v>65.100000000000009</v>
+      </c>
+      <c r="I13" s="13">
+        <v>6.1261733569986427</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="C14" s="14">
+        <v>6</v>
+      </c>
+      <c r="D14" s="15">
+        <v>65.666666666666671</v>
+      </c>
+      <c r="E14" s="15">
+        <v>17.443241289011237</v>
+      </c>
+      <c r="F14" s="15">
+        <v>176.66666666666666</v>
+      </c>
+      <c r="G14" s="15">
+        <v>7.5277265270908096</v>
+      </c>
+      <c r="H14" s="15">
+        <v>85.983333333333334</v>
+      </c>
+      <c r="I14" s="15">
+        <v>14.435985129760521</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C15" s="8">
+        <v>3</v>
+      </c>
+      <c r="D15" s="9">
+        <v>59.666666666666664</v>
+      </c>
+      <c r="E15" s="9">
+        <v>15.502687938977971</v>
+      </c>
+      <c r="F15" s="9">
+        <v>166</v>
+      </c>
+      <c r="G15" s="9">
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="H15" s="9">
+        <v>78.666666666666657</v>
+      </c>
+      <c r="I15" s="9">
+        <v>18.575880418794025</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="C16" s="10">
+        <v>8</v>
+      </c>
+      <c r="D16" s="11">
+        <v>68.375</v>
+      </c>
+      <c r="E16" s="11">
+        <v>18.988248245390395</v>
+      </c>
+      <c r="F16" s="11">
+        <v>182</v>
+      </c>
+      <c r="G16" s="11">
+        <v>7.1514234347336156</v>
+      </c>
+      <c r="H16" s="11">
+        <v>85.300000000000011</v>
+      </c>
+      <c r="I16" s="11">
+        <v>14.397221954252069</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>157</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
